--- a/data/trans_camb/P36B02_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P36B02_R-Clase-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.757665857757784</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-8.034147046773798</v>
+        <v>-8.034147046773811</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.418398755145987</v>
+        <v>-5.042334366447676</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.261792348283622</v>
+        <v>-4.44675438994327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.299726101193116</v>
+        <v>-9.549530306380635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.500411649477828</v>
+        <v>-5.404073397990032</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.59020992494994</v>
+        <v>-6.737570178410889</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.48411133556134</v>
+        <v>-14.29391482104277</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.444635203308554</v>
+        <v>-4.194407461713177</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.233884669727534</v>
+        <v>-3.914119444370377</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-10.45682966393158</v>
+        <v>-10.59420476102299</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.335441734960361</v>
+        <v>1.698657892775372</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.333635177589115</v>
+        <v>2.4552624092562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.058102771911634</v>
+        <v>-2.553502180139314</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8776342660603471</v>
+        <v>0.9388976232992275</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.1637122376775682</v>
+        <v>-0.2184901485385146</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.800734255925222</v>
+        <v>-7.351137696357002</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6243135406563114</v>
+        <v>0.6200887993824314</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6413218250321767</v>
+        <v>0.5059101954811589</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.585167195377946</v>
+        <v>-5.416891160014787</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.01843189213230429</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.08425067317977826</v>
+        <v>-0.08425067317977837</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0566576967994875</v>
+        <v>-0.05231702564595926</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04478687135126543</v>
+        <v>-0.04636097699355624</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09757266306777763</v>
+        <v>-0.1013611282739155</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.05674314534903847</v>
+        <v>-0.05504417274977647</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06742253274973677</v>
+        <v>-0.06834325963200397</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1490699702820834</v>
+        <v>-0.146587055088935</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04586809681032294</v>
+        <v>-0.04357203628701715</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04387664988320484</v>
+        <v>-0.04082419488641451</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1084489985525532</v>
+        <v>-0.1107322309811852</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01439521016966442</v>
+        <v>0.01868594874392741</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02488586903881055</v>
+        <v>0.02679592367838671</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.02212930527303739</v>
+        <v>-0.02766389485570805</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.008819736825295825</v>
+        <v>0.009531996409210744</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.001905141983807977</v>
+        <v>-0.002483718764649168</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08117539732293115</v>
+        <v>-0.07759400643858196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.006607734738893731</v>
+        <v>0.00640664800824432</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.006842881087040433</v>
+        <v>0.005523599242159311</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.05859143572091959</v>
+        <v>-0.05744221018900458</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.776378242352338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.090931585202272</v>
+        <v>-3.090931585202283</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.097294442214981</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.555958715119469</v>
+        <v>-1.621409832264917</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.834249948569137</v>
+        <v>-5.027539018401613</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.111975347234624</v>
+        <v>-7.664915510520204</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.530338324150966</v>
+        <v>-1.356430765839263</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.718750208228096</v>
+        <v>-2.732456273479939</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.67187460406516</v>
+        <v>-11.73635911768568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4502671377480567</v>
+        <v>-0.520876203406417</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.980981828050274</v>
+        <v>-2.721414466533775</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.336641488497984</v>
+        <v>-8.082886374885788</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.732291816892151</v>
+        <v>5.954033501183692</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.452762106928637</v>
+        <v>3.158698470310791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.249633168355978</v>
+        <v>1.03662522148068</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.524334619185975</v>
+        <v>5.746041066035038</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.480887437695641</v>
+        <v>4.503849907661651</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.846036498295406</v>
+        <v>-4.234704021030058</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.493365741602092</v>
+        <v>4.544109161344703</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.465462411666666</v>
+        <v>2.382794353809447</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.16880189922668</v>
+        <v>-2.37540688387279</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.008370911389847253</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.03332642905269126</v>
+        <v>-0.03332642905269138</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02243295350255824</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01602977127187135</v>
+        <v>-0.01720636879404364</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05151412631466591</v>
+        <v>-0.0530417397648979</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.07582915510029478</v>
+        <v>-0.08058500422663911</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01591944759407685</v>
+        <v>-0.01418709056302283</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02836839742282719</v>
+        <v>-0.02862534304479719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1239913204016256</v>
+        <v>-0.1235327915215453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.004803936808421082</v>
+        <v>-0.005436660638138496</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03164124317191928</v>
+        <v>-0.02868038682626141</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.0896630353367264</v>
+        <v>-0.08605475070351828</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06375272596497947</v>
+        <v>0.0655484188950039</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.03784802318620059</v>
+        <v>0.03467481409606604</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01354610847964136</v>
+        <v>0.01135232517150953</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06036887306377465</v>
+        <v>0.06351258358158372</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04938127755060112</v>
+        <v>0.04999276465090671</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04236527305123794</v>
+        <v>-0.04592589406288035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04906138192312129</v>
+        <v>0.04962314845900306</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02686273245155945</v>
+        <v>0.02593835861564428</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.02444483467382766</v>
+        <v>-0.02624411928700941</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.82420950162332</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-4.74527394915758</v>
+        <v>-4.745273949157591</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.240691574828658</v>
@@ -1083,7 +1083,7 @@
         <v>3.100740458889906</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.715815241690379</v>
+        <v>-3.715815241690346</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.814370256544762</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.475523190032567</v>
+        <v>-1.832749836872656</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.593488241456579</v>
+        <v>-5.406079961562614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.659592551579138</v>
+        <v>-8.788708079147648</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.669620722079298</v>
+        <v>-1.440673432760565</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.014076357562876</v>
+        <v>-2.117413653692488</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.848837680543539</v>
+        <v>-9.483859561758997</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8218316282535129</v>
+        <v>-0.8828017185049379</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.792796394405836</v>
+        <v>-3.736115900424631</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.632606739188629</v>
+        <v>-7.971614981650772</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.645368757585556</v>
+        <v>4.396713533024328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.557622431526879</v>
+        <v>1.655502205530388</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.8334758961923243</v>
+        <v>-0.9560128480179789</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.95770722048888</v>
+        <v>8.704260853098315</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.863146387487609</v>
+        <v>9.250871604425807</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.511087994348762</v>
+        <v>2.331979675456018</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.395031036758806</v>
+        <v>4.700569948521585</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.238022900918764</v>
+        <v>2.240895926949084</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.9064897651383509</v>
+        <v>-1.038518626148034</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.01985539956456144</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.05164939126782571</v>
+        <v>-0.05164939126782583</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03551212488097157</v>
@@ -1188,7 +1188,7 @@
         <v>0.03397851349226327</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.04071862188999061</v>
+        <v>-0.04071862188999024</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.01977981971103734</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.01561545773445162</v>
+        <v>-0.01964877845606684</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.06065390262656163</v>
+        <v>-0.05820466936455285</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.09230225365904833</v>
+        <v>-0.09421531760972487</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0176974748292903</v>
+        <v>-0.01532160123695392</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02147902353437806</v>
+        <v>-0.02245782014729349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1054382669590576</v>
+        <v>-0.1012905056237519</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.008692182491622865</v>
+        <v>-0.009488657052903561</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0405314451464632</v>
+        <v>-0.04006299096877815</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.08243973988705199</v>
+        <v>-0.08567421279543082</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05185098207415779</v>
+        <v>0.04905338344482652</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.01653953191301667</v>
+        <v>0.01825179162878869</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.009489331999576052</v>
+        <v>-0.01035780753489754</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.103188894115335</v>
+        <v>0.1007721829738299</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1128807912989649</v>
+        <v>0.1060998327713985</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01710725641280334</v>
+        <v>0.02608266736100763</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04889782190563099</v>
+        <v>0.05252178880391868</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.02492380417129655</v>
+        <v>0.02473217002792009</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.01024599317994042</v>
+        <v>-0.01151856319479745</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-1.12453267699324</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-4.792830861219199</v>
+        <v>-4.792830861219189</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.584326848905071</v>
@@ -1306,7 +1306,7 @@
         <v>-0.6433840040058869</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.326212748074488</v>
+        <v>-4.326212748074465</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.611498355603608</v>
+        <v>-1.621607885325824</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.555378958662024</v>
+        <v>-3.370228766325339</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-7.424915825646025</v>
+        <v>-7.565965819458141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.316999644665277</v>
+        <v>-4.259927451125241</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.715460637678405</v>
+        <v>-2.673242654058956</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.602905366787954</v>
+        <v>-6.555157364627521</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.202543934517961</v>
+        <v>-2.044704231142708</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.431786101122191</v>
+        <v>-2.351278718727586</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-6.097924229777212</v>
+        <v>-6.11329486412318</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.782521915691444</v>
+        <v>2.834734457435118</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9944689016313978</v>
+        <v>1.155388289841673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.120098418292679</v>
+        <v>-2.142234568576845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9111844911727013</v>
+        <v>1.060815125107196</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.188936532871121</v>
+        <v>2.164635410281561</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.56869404204921</v>
+        <v>-1.602520411673368</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.329858215848527</v>
+        <v>1.503125711188533</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.023490609446229</v>
+        <v>0.9946672005271687</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.279304634471035</v>
+        <v>-2.356803384243419</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.01222464514879291</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.05210222676076175</v>
+        <v>-0.05210222676076164</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.01678632971944162</v>
@@ -1411,7 +1411,7 @@
         <v>-0.006928212463345427</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.04658636349936247</v>
+        <v>-0.04658636349936224</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01738066977526774</v>
+        <v>-0.01740926325432869</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03815330546724231</v>
+        <v>-0.03665895858057377</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07997704688376828</v>
+        <v>-0.08034765859648628</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04540041481312786</v>
+        <v>-0.04460438954796573</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02845141222036383</v>
+        <v>-0.02813955006663796</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06925689841460643</v>
+        <v>-0.06836920033929944</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.02342872122921685</v>
+        <v>-0.02178658822009985</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02581802564947606</v>
+        <v>-0.02501173653906912</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06520224853988639</v>
+        <v>-0.06564211986509721</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.03073001001276094</v>
+        <v>0.03136832247629741</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.01080751836081023</v>
+        <v>0.01248637687049794</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.02334960390888816</v>
+        <v>-0.02295874517076081</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.009635770282256177</v>
+        <v>0.0111851940926192</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02349113109914822</v>
+        <v>0.02341302580093894</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01687043643400741</v>
+        <v>-0.01691131668408808</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01460567012825184</v>
+        <v>0.01642941431461985</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.01116239769337361</v>
+        <v>0.01093331579332647</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.02477738506143346</v>
+        <v>-0.02566462895565348</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.1205341651073111</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-7.293713628215393</v>
+        <v>-7.293713628215414</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.2202357633984131</v>
@@ -1520,7 +1520,7 @@
         <v>-0.6251498973327885</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.389012284974804</v>
+        <v>-5.389012284974815</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.070551048662528</v>
+        <v>-2.948905870430068</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.497362162486511</v>
+        <v>-3.518092637219246</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.27547009525358</v>
+        <v>-11.86009356092213</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.794326001336964</v>
+        <v>-3.014641254698541</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.477385133056166</v>
+        <v>-3.309824785981723</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.71478506192698</v>
+        <v>-6.635308425472834</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.004320082227526</v>
+        <v>-1.918129768305623</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.567117259317677</v>
+        <v>-2.548702784642244</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-7.722158392517107</v>
+        <v>-8.004293900160048</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.143258856812563</v>
+        <v>3.902884773549002</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.554451965072286</v>
+        <v>3.568189484164529</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-2.522595404442327</v>
+        <v>-2.949147984078719</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.438580495732859</v>
+        <v>2.499234928881464</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.721117181902403</v>
+        <v>2.005653359050322</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.591367996373109</v>
+        <v>-1.377676221442023</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.219668451242503</v>
+        <v>2.348325877145274</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.66906693374531</v>
+        <v>1.922027121428452</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-3.055132677217596</v>
+        <v>-3.017756407651949</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.001302144489732626</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.07879482968345841</v>
+        <v>-0.07879482968345865</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.002330468000327376</v>
@@ -1625,7 +1625,7 @@
         <v>-0.00666731974788771</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.05747464437332393</v>
+        <v>-0.05747464437332404</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.03291497167993583</v>
+        <v>-0.03130374868888534</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03748456188931196</v>
+        <v>-0.03721725105303556</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1202334318521903</v>
+        <v>-0.1262415068790911</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02921673781173929</v>
+        <v>-0.03140225519109201</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03639151036795307</v>
+        <v>-0.03460892362194493</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06986529627327699</v>
+        <v>-0.06958972658657249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0212625874967465</v>
+        <v>-0.02019904812820406</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.02687954263665366</v>
+        <v>-0.02692835543255637</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.08151684107066584</v>
+        <v>-0.08406375346022622</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04664912955191399</v>
+        <v>0.04352235999827059</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.03904314375271676</v>
+        <v>0.03916372247163357</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02865294149089579</v>
+        <v>-0.03254618092647808</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02613148421873488</v>
+        <v>0.02695844883295056</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01848714390389017</v>
+        <v>0.02156415914920934</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01718878600291368</v>
+        <v>-0.01536576554835352</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02396930616535897</v>
+        <v>0.025400102327499</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01819370387137054</v>
+        <v>0.02091533105584527</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.03286395403022709</v>
+        <v>-0.03270034079381214</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-2.749748542041797</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-9.564389083230473</v>
+        <v>-9.564389083230484</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0.1784090805763916</v>
@@ -1734,7 +1734,7 @@
         <v>-0.522260607245717</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-5.905154771362242</v>
+        <v>-5.905154771362231</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.968121927097104</v>
+        <v>-2.850404034695932</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.176063164930092</v>
+        <v>-6.284258548356167</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.9494840651591</v>
+        <v>-17.13492775936846</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.736012323991122</v>
+        <v>-1.766756683335227</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.903163536822415</v>
+        <v>-2.004163480108008</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-7.393963328571099</v>
+        <v>-7.342697387236012</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.502553791524587</v>
+        <v>-1.429172650071908</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.218982504517709</v>
+        <v>-2.27346610938549</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-8.407984946199273</v>
+        <v>-8.617464032700033</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.237108277908413</v>
+        <v>2.994438755451074</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.7776774683645258</v>
+        <v>0.5046795777548867</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-3.505332523775554</v>
+        <v>-3.934744013463423</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.239237190123244</v>
+        <v>2.118420346055994</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.864910814937526</v>
+        <v>1.83390007509612</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-2.614236543223037</v>
+        <v>-2.580991299108464</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.8089691756204</v>
+        <v>1.767627933120927</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.203730175815547</v>
+        <v>1.09356134723894</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-3.6542981775589</v>
+        <v>-3.688040152827643</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.02844885842767611</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.09895303036473026</v>
+        <v>-0.09895303036473037</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.001894832202882184</v>
@@ -1839,7 +1839,7 @@
         <v>-0.005518533628632933</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.06239757457470387</v>
+        <v>-0.06239757457470375</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.03049737692653788</v>
+        <v>-0.02927011434193852</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.06312307450968667</v>
+        <v>-0.06388988134025546</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1848877652267864</v>
+        <v>-0.1761983242724643</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.01827475188761469</v>
+        <v>-0.01868032325085789</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.02006514075346704</v>
+        <v>-0.02106494813961267</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.07817869822200324</v>
+        <v>-0.0775592799136534</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.01582530766125478</v>
+        <v>-0.01493896109064397</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.02326123740787229</v>
+        <v>-0.02376562502388699</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.08860264282773615</v>
+        <v>-0.09046522904497509</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.03440833381339793</v>
+        <v>0.03126753105847802</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.008143689452565949</v>
+        <v>0.005423343034943882</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.03643179173777898</v>
+        <v>-0.0408704317075546</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02398805728604102</v>
+        <v>0.02272541471664105</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.02002149832998497</v>
+        <v>0.01959329654785407</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.02789699476437318</v>
+        <v>-0.02766027109480447</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01934941888198163</v>
+        <v>0.01888394998433519</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.01284575183209467</v>
+        <v>0.01162026062351181</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.03904488218045982</v>
+        <v>-0.03886228684455627</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-1.138094010137625</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-5.451211215710982</v>
+        <v>-5.451211215710994</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-0.1304295881515705</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8060290818790836</v>
+        <v>-0.9289357580800029</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.578509246116612</v>
+        <v>-2.487518797745373</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-7.001668866000053</v>
+        <v>-7.091318339617871</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.231892803793111</v>
+        <v>-1.166886515144098</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-1.385459160260634</v>
+        <v>-1.535755535426425</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.785581828357942</v>
+        <v>-6.676560203395867</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.716776402359517</v>
+        <v>-0.7693703895527511</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.621316502772048</v>
+        <v>-1.523690902874407</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-6.45571367305202</v>
+        <v>-6.467580662694772</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.78069282319265</v>
+        <v>1.679372218923102</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.1636877827835724</v>
+        <v>0.1498030561905755</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-3.811163078391207</v>
+        <v>-3.845008419789221</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.9828960461047559</v>
+        <v>1.021355992295487</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.8993305277250513</v>
+        <v>0.8244676014774294</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-4.264887102973955</v>
+        <v>-4.270976639176673</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.04099965926556</v>
+        <v>0.930660179111959</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.1063928803003267</v>
+        <v>0.1156425077409004</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-4.407556657296154</v>
+        <v>-4.508351727552921</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.01225477327078657</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.05869757410605182</v>
+        <v>-0.05869757410605195</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.001382978343933711</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.008578612142510945</v>
+        <v>-0.009913365894884145</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.02739311013463554</v>
+        <v>-0.02661898980577933</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.07509327100570404</v>
+        <v>-0.07622523030071422</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01297651090345045</v>
+        <v>-0.0123142997463093</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.01460361792833439</v>
+        <v>-0.01620752522018852</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.07160395234626452</v>
+        <v>-0.07032517928190472</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.007638830456524929</v>
+        <v>-0.008200471858129707</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01722565053029826</v>
+        <v>-0.0162323989386772</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.06867361769128771</v>
+        <v>-0.06902233723647667</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.01932686112472739</v>
+        <v>0.01818371568581761</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.002072638772798612</v>
+        <v>0.001727112345986475</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.0414096471423596</v>
+        <v>-0.04198603884903342</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01045931694773971</v>
+        <v>0.01091772566042955</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.009620155347632034</v>
+        <v>0.008805269116666327</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.04554520822452405</v>
+        <v>-0.04519943270456191</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01117549913894921</v>
+        <v>0.009988505551468733</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.001172352180841668</v>
+        <v>0.001244651861815731</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.04758422214848824</v>
+        <v>-0.04833741153107153</v>
       </c>
     </row>
     <row r="46">
